--- a/data/pca/factorExposure/factorExposure_2009-11-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-11-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.004453257012862182</v>
+        <v>0.01664526231917849</v>
       </c>
       <c r="C2">
-        <v>-0.009212858542742206</v>
+        <v>-0.001001385255641564</v>
       </c>
       <c r="D2">
-        <v>-0.0005963795359166247</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.007705486321348635</v>
+      </c>
+      <c r="E2">
+        <v>0.0004295020435436682</v>
+      </c>
+      <c r="F2">
+        <v>-0.0115806479224827</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.0371080738520747</v>
+        <v>0.09372149908290912</v>
       </c>
       <c r="C4">
-        <v>-0.1128610200899776</v>
+        <v>-0.01531661886576763</v>
       </c>
       <c r="D4">
-        <v>-0.03133023722162551</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08358174685894375</v>
+      </c>
+      <c r="E4">
+        <v>0.02819031059207268</v>
+      </c>
+      <c r="F4">
+        <v>0.03072753122929022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.05089876151346143</v>
+        <v>0.1577789862993255</v>
       </c>
       <c r="C6">
-        <v>-0.1222893746825054</v>
+        <v>-0.02542504485816021</v>
       </c>
       <c r="D6">
-        <v>0.04802150526748151</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02102022963882861</v>
+      </c>
+      <c r="E6">
+        <v>0.01182740144869675</v>
+      </c>
+      <c r="F6">
+        <v>0.04627381229417351</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.01535314919858688</v>
+        <v>0.06272204211922576</v>
       </c>
       <c r="C7">
-        <v>-0.08262035424683027</v>
+        <v>0.001648407251772532</v>
       </c>
       <c r="D7">
-        <v>-0.006708847879429754</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.0530420839954674</v>
+      </c>
+      <c r="E7">
+        <v>0.009776356431487885</v>
+      </c>
+      <c r="F7">
+        <v>0.04765947914034276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.002006834562241296</v>
+        <v>0.0571404640144204</v>
       </c>
       <c r="C8">
-        <v>-0.06763560207278072</v>
+        <v>0.01366745827442183</v>
       </c>
       <c r="D8">
-        <v>0.01682269150016881</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03355609910954588</v>
+      </c>
+      <c r="E8">
+        <v>0.01733075374609014</v>
+      </c>
+      <c r="F8">
+        <v>-0.02803155908965425</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.03190678159776542</v>
+        <v>0.07116478892138117</v>
       </c>
       <c r="C9">
-        <v>-0.09491121405543404</v>
+        <v>-0.01083742500297666</v>
       </c>
       <c r="D9">
-        <v>-0.03481700306598583</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08614700936837937</v>
+      </c>
+      <c r="E9">
+        <v>0.0229732470030709</v>
+      </c>
+      <c r="F9">
+        <v>0.0472148502485111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.01573593007504745</v>
+        <v>0.09500605934037841</v>
       </c>
       <c r="C10">
-        <v>-0.02854623600507057</v>
+        <v>-0.0206975818087785</v>
       </c>
       <c r="D10">
-        <v>0.1177945081765889</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1702349137513968</v>
+      </c>
+      <c r="E10">
+        <v>-0.03577113466006237</v>
+      </c>
+      <c r="F10">
+        <v>-0.05458665286789368</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.034983260875588</v>
+        <v>0.08756174515388217</v>
       </c>
       <c r="C11">
-        <v>-0.09678140700586783</v>
+        <v>-0.0104014415329173</v>
       </c>
       <c r="D11">
-        <v>-0.04921120266070861</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1168460349904584</v>
+      </c>
+      <c r="E11">
+        <v>0.04633852152312033</v>
+      </c>
+      <c r="F11">
+        <v>0.0214711747763127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.03442701424882431</v>
+        <v>0.09233969866905437</v>
       </c>
       <c r="C12">
-        <v>-0.1100181732146428</v>
+        <v>-0.007722343973492937</v>
       </c>
       <c r="D12">
-        <v>-0.04908498212677736</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1312703048804572</v>
+      </c>
+      <c r="E12">
+        <v>0.04754169844127736</v>
+      </c>
+      <c r="F12">
+        <v>0.02574192437857209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.01206251738472935</v>
+        <v>0.0416723153367405</v>
       </c>
       <c r="C13">
-        <v>-0.03560354784206932</v>
+        <v>-0.003088520513680103</v>
       </c>
       <c r="D13">
-        <v>-0.03245930523429553</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05179647164064446</v>
+      </c>
+      <c r="E13">
+        <v>-0.008655726973608127</v>
+      </c>
+      <c r="F13">
+        <v>0.003130927116603294</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01970923305729898</v>
+        <v>0.02263539619822904</v>
       </c>
       <c r="C14">
-        <v>-0.02866795711859397</v>
+        <v>-0.0136435765809698</v>
       </c>
       <c r="D14">
-        <v>0.0006198439208366756</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03308150996500871</v>
+      </c>
+      <c r="E14">
+        <v>0.01733737217269377</v>
+      </c>
+      <c r="F14">
+        <v>0.01349000390016995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.01435810664643926</v>
+        <v>0.03303078530542213</v>
       </c>
       <c r="C15">
-        <v>-0.03294705151912598</v>
+        <v>-0.004756069436045092</v>
       </c>
       <c r="D15">
-        <v>-0.008868429781049358</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04496576629984814</v>
+      </c>
+      <c r="E15">
+        <v>0.005929670738252752</v>
+      </c>
+      <c r="F15">
+        <v>0.02287069329411929</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.0249917856048406</v>
+        <v>0.07422919666737995</v>
       </c>
       <c r="C16">
-        <v>-0.09913417119916143</v>
+        <v>-0.001555357505303167</v>
       </c>
       <c r="D16">
-        <v>-0.03969547105121424</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1253726632000295</v>
+      </c>
+      <c r="E16">
+        <v>0.06161008452743887</v>
+      </c>
+      <c r="F16">
+        <v>0.02373068414964372</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,24 +1031,36 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.03223980457594453</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003390899522926678</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01935747413954407</v>
+      </c>
+      <c r="E18">
+        <v>-0.00754693920740498</v>
+      </c>
+      <c r="F18">
+        <v>-0.003830784016342337</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.01663250345039422</v>
+        <v>0.06077151483800952</v>
       </c>
       <c r="C20">
-        <v>-0.05883032099266349</v>
+        <v>-0.000223622901033758</v>
       </c>
       <c r="D20">
-        <v>-0.008287895338944399</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07722333091937413</v>
+      </c>
+      <c r="E20">
+        <v>0.05544216642553349</v>
+      </c>
+      <c r="F20">
+        <v>0.0222066201581419</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.01566822064560134</v>
+        <v>0.04053385175437146</v>
       </c>
       <c r="C21">
-        <v>-0.02195791984451196</v>
+        <v>-0.006404829715888111</v>
       </c>
       <c r="D21">
-        <v>-0.004985931349290549</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03741942193406847</v>
+      </c>
+      <c r="E21">
+        <v>-0.005619198526320164</v>
+      </c>
+      <c r="F21">
+        <v>-0.0242831777074097</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.007167747629253438</v>
+        <v>0.04352492523775375</v>
       </c>
       <c r="C22">
-        <v>-0.03056371387340354</v>
+        <v>-0.0006695076985967307</v>
       </c>
       <c r="D22">
-        <v>0.03287533344713521</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.004425801520948527</v>
+      </c>
+      <c r="E22">
+        <v>0.03026323845003334</v>
+      </c>
+      <c r="F22">
+        <v>-0.03686038780874895</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.007153869696894456</v>
+        <v>0.04351051961001032</v>
       </c>
       <c r="C23">
-        <v>-0.03050779711928811</v>
+        <v>-0.0006651653614812709</v>
       </c>
       <c r="D23">
-        <v>0.03294659035293324</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.004430447940537269</v>
+      </c>
+      <c r="E23">
+        <v>0.03046486375141146</v>
+      </c>
+      <c r="F23">
+        <v>-0.0368246035259085</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.02579923899221862</v>
+        <v>0.08007875603605895</v>
       </c>
       <c r="C24">
-        <v>-0.1059428287123496</v>
+        <v>-0.001992074203387208</v>
       </c>
       <c r="D24">
-        <v>-0.04471313034651404</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1208834930074913</v>
+      </c>
+      <c r="E24">
+        <v>0.04905649108898387</v>
+      </c>
+      <c r="F24">
+        <v>0.02581795012952362</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.02973548069270427</v>
+        <v>0.08477715392184483</v>
       </c>
       <c r="C25">
-        <v>-0.1008214590939885</v>
+        <v>-0.004296255242654914</v>
       </c>
       <c r="D25">
-        <v>-0.0501916246321772</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1094942968768147</v>
+      </c>
+      <c r="E25">
+        <v>0.03266129969307298</v>
+      </c>
+      <c r="F25">
+        <v>0.02624275811694272</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.02708113064757756</v>
+        <v>0.05810514504289133</v>
       </c>
       <c r="C26">
-        <v>-0.04677700249825394</v>
+        <v>-0.01436719675922254</v>
       </c>
       <c r="D26">
-        <v>0.005074568455707855</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04022879861454656</v>
+      </c>
+      <c r="E26">
+        <v>0.02847065908472238</v>
+      </c>
+      <c r="F26">
+        <v>-0.009312971043267939</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.01724334249623229</v>
+        <v>0.1403462753588191</v>
       </c>
       <c r="C28">
-        <v>-0.05572200235258089</v>
+        <v>-0.0202105119893642</v>
       </c>
       <c r="D28">
-        <v>0.2107658103929205</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2615444969230246</v>
+      </c>
+      <c r="E28">
+        <v>-0.06756293901478071</v>
+      </c>
+      <c r="F28">
+        <v>0.009971152023125741</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.01534175364328703</v>
+        <v>0.02765413117195277</v>
       </c>
       <c r="C29">
-        <v>-0.02785461294899362</v>
+        <v>-0.00821415414612525</v>
       </c>
       <c r="D29">
-        <v>0.002651234750777407</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03184924994802071</v>
+      </c>
+      <c r="E29">
+        <v>0.01114356878860134</v>
+      </c>
+      <c r="F29">
+        <v>-0.01181338064975349</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.02585636839176697</v>
+        <v>0.06116732506029678</v>
       </c>
       <c r="C30">
-        <v>-0.1289561861722222</v>
+        <v>-0.003166684892879161</v>
       </c>
       <c r="D30">
-        <v>-0.03150150388909928</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08905932221932393</v>
+      </c>
+      <c r="E30">
+        <v>0.01931163281792269</v>
+      </c>
+      <c r="F30">
+        <v>0.0829805907887561</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.02341705224706142</v>
+        <v>0.05005797883324849</v>
       </c>
       <c r="C31">
-        <v>-0.03430529057838742</v>
+        <v>-0.01517225866069583</v>
       </c>
       <c r="D31">
-        <v>-0.004815340255730554</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02472949352988205</v>
+      </c>
+      <c r="E31">
+        <v>0.02746407075381613</v>
+      </c>
+      <c r="F31">
+        <v>-0.002223958458152396</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.01249208453288604</v>
+        <v>0.05007555894438944</v>
       </c>
       <c r="C32">
-        <v>-0.06497835171837142</v>
+        <v>0.001629796371761363</v>
       </c>
       <c r="D32">
-        <v>0.01401852883425137</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03686552759029126</v>
+      </c>
+      <c r="E32">
+        <v>0.0317063619887295</v>
+      </c>
+      <c r="F32">
+        <v>0.003030885669467096</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.03103869409315129</v>
+        <v>0.08951058464711478</v>
       </c>
       <c r="C33">
-        <v>-0.1083441920184289</v>
+        <v>-0.007516153308094475</v>
       </c>
       <c r="D33">
-        <v>-0.03298138962908506</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.09923429811460842</v>
+      </c>
+      <c r="E33">
+        <v>0.04379015691873975</v>
+      </c>
+      <c r="F33">
+        <v>0.03511087193557175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.03235375366036208</v>
+        <v>0.06758910492774219</v>
       </c>
       <c r="C34">
-        <v>-0.09002499185513861</v>
+        <v>-0.01041904125792238</v>
       </c>
       <c r="D34">
-        <v>-0.04624811509244956</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1077850660562693</v>
+      </c>
+      <c r="E34">
+        <v>0.03452558262739859</v>
+      </c>
+      <c r="F34">
+        <v>0.0332127994839394</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.006469314269574952</v>
+        <v>0.02441471186552545</v>
       </c>
       <c r="C35">
-        <v>-0.01834644635642687</v>
+        <v>-0.002427101224420945</v>
       </c>
       <c r="D35">
-        <v>-5.684162483652987e-05</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01130668521080559</v>
+      </c>
+      <c r="E35">
+        <v>0.01145771299337661</v>
+      </c>
+      <c r="F35">
+        <v>0.0006740924569144953</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.01415192953937518</v>
+        <v>0.02781378917478514</v>
       </c>
       <c r="C36">
-        <v>-0.02955237247810079</v>
+        <v>-0.007064238215347541</v>
       </c>
       <c r="D36">
-        <v>-0.01030108049858662</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03951788378990031</v>
+      </c>
+      <c r="E36">
+        <v>0.0165731986532643</v>
+      </c>
+      <c r="F36">
+        <v>0.01461214454081557</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.0003614453463655606</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>9.219690814907043e-05</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.0004094758928591896</v>
+      </c>
+      <c r="E37">
+        <v>-0.0004645293822930498</v>
+      </c>
+      <c r="F37">
+        <v>0.000594430716760173</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.0007390217720651096</v>
+        <v>0.001452374461427632</v>
       </c>
       <c r="C38">
-        <v>-0.003731465826296821</v>
+        <v>-0.0002387653404339129</v>
       </c>
       <c r="D38">
-        <v>0.002473463490226596</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.0003244456219857932</v>
+      </c>
+      <c r="E38">
+        <v>0.0003409921033881244</v>
+      </c>
+      <c r="F38">
+        <v>-0.0009221021587465349</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.04894568113919267</v>
+        <v>0.1052322187709026</v>
       </c>
       <c r="C39">
-        <v>-0.1503402021496364</v>
+        <v>-0.01568021470810628</v>
       </c>
       <c r="D39">
-        <v>-0.07974669860666909</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1539442046094906</v>
+      </c>
+      <c r="E39">
+        <v>0.05907613546046545</v>
+      </c>
+      <c r="F39">
+        <v>0.02891313816996985</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.01217857630342332</v>
+        <v>0.04190226539320745</v>
       </c>
       <c r="C40">
-        <v>-0.009836041210474071</v>
+        <v>-0.006682033234373673</v>
       </c>
       <c r="D40">
-        <v>0.004406313128362201</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.0316856449167013</v>
+      </c>
+      <c r="E40">
+        <v>0.002755394355537425</v>
+      </c>
+      <c r="F40">
+        <v>-0.01588973705007635</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.0124808655137494</v>
+        <v>0.02806274918760762</v>
       </c>
       <c r="C41">
-        <v>-0.0180153172554447</v>
+        <v>-0.006816683979243255</v>
       </c>
       <c r="D41">
-        <v>0.01218168590359809</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01012658680509739</v>
+      </c>
+      <c r="E41">
+        <v>0.01242909868888954</v>
+      </c>
+      <c r="F41">
+        <v>-0.00635754504255217</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.01480627830777886</v>
+        <v>0.04068122092966305</v>
       </c>
       <c r="C43">
-        <v>-0.02642904522999533</v>
+        <v>-0.006809157575305142</v>
       </c>
       <c r="D43">
-        <v>0.005266842464226549</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01959975788213401</v>
+      </c>
+      <c r="E43">
+        <v>0.02471035798142645</v>
+      </c>
+      <c r="F43">
+        <v>-0.01307855118954466</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.04446596240694035</v>
+        <v>0.07941133526587123</v>
       </c>
       <c r="C44">
-        <v>-0.1232705089804194</v>
+        <v>-0.01980948690927433</v>
       </c>
       <c r="D44">
-        <v>-0.02379749481548472</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09808535410689047</v>
+      </c>
+      <c r="E44">
+        <v>0.0652999584225864</v>
+      </c>
+      <c r="F44">
+        <v>0.1551417134446486</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.005892679639834864</v>
+        <v>0.02313574654993968</v>
       </c>
       <c r="C46">
-        <v>-0.005111625514445636</v>
+        <v>-0.003295212379069645</v>
       </c>
       <c r="D46">
-        <v>0.01496427256848896</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01313090040788904</v>
+      </c>
+      <c r="E46">
+        <v>0.02200537528575276</v>
+      </c>
+      <c r="F46">
+        <v>-0.006594603773607198</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.01247060678271354</v>
+        <v>0.0512420842107409</v>
       </c>
       <c r="C47">
-        <v>-0.03172538578457369</v>
+        <v>-0.003406173652875681</v>
       </c>
       <c r="D47">
-        <v>0.02356621369787907</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01379262642219498</v>
+      </c>
+      <c r="E47">
+        <v>0.02331981356552041</v>
+      </c>
+      <c r="F47">
+        <v>-0.03371905356947241</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.01491218035278433</v>
+        <v>0.04993388062397943</v>
       </c>
       <c r="C48">
-        <v>-0.04906027114977877</v>
+        <v>-0.002407503242775545</v>
       </c>
       <c r="D48">
-        <v>-0.02455700266351543</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.049882124676175</v>
+      </c>
+      <c r="E48">
+        <v>-0.006179971808039839</v>
+      </c>
+      <c r="F48">
+        <v>0.00945650022748132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.05655166592063315</v>
+        <v>0.2003879601594525</v>
       </c>
       <c r="C49">
-        <v>-0.2221587725029482</v>
+        <v>-0.01881246145170126</v>
       </c>
       <c r="D49">
-        <v>0.05650252465781366</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.008097003658664321</v>
+      </c>
+      <c r="E49">
+        <v>0.03060440770008321</v>
+      </c>
+      <c r="F49">
+        <v>0.03978714180985998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.02078840959476538</v>
+        <v>0.05056810685449591</v>
       </c>
       <c r="C50">
-        <v>-0.03885193099299594</v>
+        <v>-0.01115443571145704</v>
       </c>
       <c r="D50">
-        <v>0.002450022558602739</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02376681047001552</v>
+      </c>
+      <c r="E50">
+        <v>0.02964809748874361</v>
+      </c>
+      <c r="F50">
+        <v>0.009092205562342935</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.0002846415893042623</v>
+        <v>0.0004652471570245204</v>
       </c>
       <c r="C51">
-        <v>-0.001116657634876528</v>
+        <v>-0.0001248102614508147</v>
       </c>
       <c r="D51">
-        <v>0.001030176236231223</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.0002381630095210321</v>
+      </c>
+      <c r="E51">
+        <v>-3.684592807950723e-05</v>
+      </c>
+      <c r="F51">
+        <v>0.001847278152687071</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.04193731810145892</v>
+        <v>0.1462584469664483</v>
       </c>
       <c r="C52">
-        <v>-0.1482423466602245</v>
+        <v>-0.01575599830419458</v>
       </c>
       <c r="D52">
-        <v>-0.0217689268020943</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.0446627589337452</v>
+      </c>
+      <c r="E52">
+        <v>0.02064114145855488</v>
+      </c>
+      <c r="F52">
+        <v>0.04170893039254941</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.04603129658454377</v>
+        <v>0.1719101569322627</v>
       </c>
       <c r="C53">
-        <v>-0.170006073485116</v>
+        <v>-0.01880938280338017</v>
       </c>
       <c r="D53">
-        <v>0.01350816190254502</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.006740861402676229</v>
+      </c>
+      <c r="E53">
+        <v>0.03205655263622241</v>
+      </c>
+      <c r="F53">
+        <v>0.07281203686532935</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01759406355170734</v>
+        <v>0.02233869527680743</v>
       </c>
       <c r="C54">
-        <v>-0.03292647158772592</v>
+        <v>-0.01215185814517464</v>
       </c>
       <c r="D54">
-        <v>-0.003647113153579276</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03454910818288293</v>
+      </c>
+      <c r="E54">
+        <v>0.01874422018723454</v>
+      </c>
+      <c r="F54">
+        <v>-0.004203733921385511</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.03230068271809595</v>
+        <v>0.1140059026611778</v>
       </c>
       <c r="C55">
-        <v>-0.08873820617434372</v>
+        <v>-0.01644169568981254</v>
       </c>
       <c r="D55">
-        <v>-0.003196563873155311</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.009655850661733235</v>
+      </c>
+      <c r="E55">
+        <v>0.02836551559635192</v>
+      </c>
+      <c r="F55">
+        <v>0.0474817313411631</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.04240939629947305</v>
+        <v>0.1768296433926888</v>
       </c>
       <c r="C56">
-        <v>-0.156064353108635</v>
+        <v>-0.01637426512978618</v>
       </c>
       <c r="D56">
-        <v>0.01519343198904113</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0007479719770242204</v>
+      </c>
+      <c r="E56">
+        <v>0.03572481260803127</v>
+      </c>
+      <c r="F56">
+        <v>0.05154012538637331</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,626 +1831,896 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.01617741590678267</v>
+        <v>0.04606074799516863</v>
       </c>
       <c r="C58">
-        <v>-0.04935364894469751</v>
+        <v>-0.0004080730373386944</v>
       </c>
       <c r="D58">
-        <v>-0.01798565897544705</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.06769152365704373</v>
+      </c>
+      <c r="E58">
+        <v>0.02706967135193419</v>
+      </c>
+      <c r="F58">
+        <v>-0.0366461141085632</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.02665329138641499</v>
+        <v>0.1683279669924337</v>
       </c>
       <c r="C59">
-        <v>-0.1099993105570931</v>
+        <v>-0.02081823449257322</v>
       </c>
       <c r="D59">
-        <v>0.2165117092542288</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2183772789760361</v>
+      </c>
+      <c r="E59">
+        <v>-0.04634760392469364</v>
+      </c>
+      <c r="F59">
+        <v>-0.03437751830146733</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.04504957721003967</v>
+        <v>0.2317484664790227</v>
       </c>
       <c r="C60">
-        <v>-0.2666770176592322</v>
+        <v>0.00277583399488856</v>
       </c>
       <c r="D60">
-        <v>-0.002163924313785327</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04213370550890619</v>
+      </c>
+      <c r="E60">
+        <v>0.01125439475254673</v>
+      </c>
+      <c r="F60">
+        <v>-0.005971400531779214</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.03647154027607299</v>
+        <v>0.08164061659111795</v>
       </c>
       <c r="C61">
-        <v>-0.1196188477149184</v>
+        <v>-0.01159984308206054</v>
       </c>
       <c r="D61">
-        <v>-0.03657524324713276</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1168643685472078</v>
+      </c>
+      <c r="E61">
+        <v>0.03883211076982002</v>
+      </c>
+      <c r="F61">
+        <v>0.01092497505401801</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.04573131082575638</v>
+        <v>0.1704012282126058</v>
       </c>
       <c r="C62">
-        <v>-0.1581328438732671</v>
+        <v>-0.01972972679304017</v>
       </c>
       <c r="D62">
-        <v>0.005710808955797449</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.006798882746884472</v>
+      </c>
+      <c r="E62">
+        <v>0.03547924655234225</v>
+      </c>
+      <c r="F62">
+        <v>0.03326283220554725</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.01439587846950945</v>
+        <v>0.04586074186002204</v>
       </c>
       <c r="C63">
-        <v>-0.05056450529037582</v>
+        <v>-0.001892818088368973</v>
       </c>
       <c r="D63">
-        <v>-0.02281463636832089</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05827155473230543</v>
+      </c>
+      <c r="E63">
+        <v>0.02153642540803683</v>
+      </c>
+      <c r="F63">
+        <v>0.004886798248921491</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.03148896326868882</v>
+        <v>0.1104026985135466</v>
       </c>
       <c r="C64">
-        <v>-0.09635084412429362</v>
+        <v>-0.0110113059841479</v>
       </c>
       <c r="D64">
-        <v>0.001832678912024346</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04352172723886521</v>
+      </c>
+      <c r="E64">
+        <v>0.0248858824568881</v>
+      </c>
+      <c r="F64">
+        <v>0.02573899997720718</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.05336033506633145</v>
+        <v>0.147499648896591</v>
       </c>
       <c r="C65">
-        <v>-0.1176518904505274</v>
+        <v>-0.03258417332948879</v>
       </c>
       <c r="D65">
-        <v>0.03645321277468288</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04026491268409865</v>
+      </c>
+      <c r="E65">
+        <v>0.005267397332215567</v>
+      </c>
+      <c r="F65">
+        <v>0.03979270241655999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.04994943009690522</v>
+        <v>0.1246189036213369</v>
       </c>
       <c r="C66">
-        <v>-0.1775218059331405</v>
+        <v>-0.01374784787668887</v>
       </c>
       <c r="D66">
-        <v>-0.07121086875882859</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1424415205911647</v>
+      </c>
+      <c r="E66">
+        <v>0.06637194199978717</v>
+      </c>
+      <c r="F66">
+        <v>0.03119794132439103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.01808403461308956</v>
+        <v>0.06056846638380432</v>
       </c>
       <c r="C67">
-        <v>-0.07352361912525157</v>
+        <v>-0.003216661911552888</v>
       </c>
       <c r="D67">
-        <v>-0.00381136970741579</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05549952823372512</v>
+      </c>
+      <c r="E67">
+        <v>0.01754142551007766</v>
+      </c>
+      <c r="F67">
+        <v>-0.03421242158212977</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.02365824277385702</v>
+        <v>0.1163135777988436</v>
       </c>
       <c r="C68">
-        <v>-0.03502186759401031</v>
+        <v>-0.03103865051621703</v>
       </c>
       <c r="D68">
-        <v>0.1790072487098426</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2602488065389962</v>
+      </c>
+      <c r="E68">
+        <v>-0.08631595034614767</v>
+      </c>
+      <c r="F68">
+        <v>0.005571402892989259</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.008631396770554788</v>
+        <v>0.0398811393326596</v>
       </c>
       <c r="C69">
-        <v>-0.03581454437612668</v>
+        <v>-0.00139312763566738</v>
       </c>
       <c r="D69">
-        <v>0.02036825964455824</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.006927375077789876</v>
+      </c>
+      <c r="E69">
+        <v>0.022661885167567</v>
+      </c>
+      <c r="F69">
+        <v>-0.000709528698401924</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.01463173938289332</v>
+        <v>0.0656719094823584</v>
       </c>
       <c r="C70">
-        <v>-0.01260552964945617</v>
+        <v>0.02786772094906768</v>
       </c>
       <c r="D70">
-        <v>0.02954756921984309</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02477892796161136</v>
+      </c>
+      <c r="E70">
+        <v>-0.03955249504314361</v>
+      </c>
+      <c r="F70">
+        <v>-0.1850203801839895</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.02940479005366782</v>
+        <v>0.1364054253067716</v>
       </c>
       <c r="C71">
-        <v>-0.04837275750579909</v>
+        <v>-0.03545706301113212</v>
       </c>
       <c r="D71">
-        <v>0.1957524729688727</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2728080040092047</v>
+      </c>
+      <c r="E71">
+        <v>-0.09597361606764329</v>
+      </c>
+      <c r="F71">
+        <v>0.01228212451383992</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.0476124984785533</v>
+        <v>0.1418643910963394</v>
       </c>
       <c r="C72">
-        <v>-0.1251571258087581</v>
+        <v>-0.02591044911514783</v>
       </c>
       <c r="D72">
-        <v>0.036275228757348</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.0007685922648259808</v>
+      </c>
+      <c r="E72">
+        <v>0.03885245744460154</v>
+      </c>
+      <c r="F72">
+        <v>0.03281907924678132</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.05132000034343905</v>
+        <v>0.2014430454007156</v>
       </c>
       <c r="C73">
-        <v>-0.2110323167811469</v>
+        <v>-0.01236101654154675</v>
       </c>
       <c r="D73">
-        <v>0.05282293534033698</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01659050741416599</v>
+      </c>
+      <c r="E73">
+        <v>0.0632641265815627</v>
+      </c>
+      <c r="F73">
+        <v>0.03856969258586992</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.03154687834642617</v>
+        <v>0.0943619697187361</v>
       </c>
       <c r="C74">
-        <v>-0.1192447960248839</v>
+        <v>-0.01326307337508171</v>
       </c>
       <c r="D74">
-        <v>0.02882502275444385</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01690907099441902</v>
+      </c>
+      <c r="E74">
+        <v>0.04384340850869806</v>
+      </c>
+      <c r="F74">
+        <v>0.05652283098048198</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.05114535972302912</v>
+        <v>0.127967489382593</v>
       </c>
       <c r="C75">
-        <v>-0.1289070816756354</v>
+        <v>-0.02784083392850341</v>
       </c>
       <c r="D75">
-        <v>0.02145725760060994</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03007265284465965</v>
+      </c>
+      <c r="E75">
+        <v>0.05825812477084009</v>
+      </c>
+      <c r="F75">
+        <v>0.0185780849949161</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-9.098631699314095e-05</v>
+        <v>0.0001583849379579885</v>
       </c>
       <c r="C76">
-        <v>-0.0004988940910416051</v>
+        <v>-6.897713585533978e-05</v>
       </c>
       <c r="D76">
-        <v>0.0006762402022059441</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.0003934081071149213</v>
+      </c>
+      <c r="E76">
+        <v>-0.0001817527657683357</v>
+      </c>
+      <c r="F76">
+        <v>0.0003054485111458179</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.03035874859839198</v>
+        <v>0.08689761289678972</v>
       </c>
       <c r="C77">
-        <v>-0.09645077022694733</v>
+        <v>-0.008025358906067344</v>
       </c>
       <c r="D77">
-        <v>-0.06278502463363135</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.113252229374563</v>
+      </c>
+      <c r="E77">
+        <v>0.0392661126328863</v>
+      </c>
+      <c r="F77">
+        <v>0.03317884415051515</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.06778804351857612</v>
+        <v>0.1007322082280244</v>
       </c>
       <c r="C78">
-        <v>-0.1394928142587666</v>
+        <v>-0.0393778433627426</v>
       </c>
       <c r="D78">
-        <v>0.009049812650740641</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1159302602737366</v>
+      </c>
+      <c r="E78">
+        <v>0.07381432310991103</v>
+      </c>
+      <c r="F78">
+        <v>0.04553952567897622</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.04703403705667499</v>
+        <v>0.1644250453619367</v>
       </c>
       <c r="C79">
-        <v>-0.1388632688767684</v>
+        <v>-0.02226390142910952</v>
       </c>
       <c r="D79">
-        <v>0.0233293969420438</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01501488741884178</v>
+      </c>
+      <c r="E79">
+        <v>0.04627820430180551</v>
+      </c>
+      <c r="F79">
+        <v>0.0108894549061316</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.01621478472936864</v>
+        <v>0.08288806292225535</v>
       </c>
       <c r="C80">
-        <v>-0.08794038100952931</v>
+        <v>0.0007629353524176612</v>
       </c>
       <c r="D80">
-        <v>-0.000579395211870717</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05580262451894347</v>
+      </c>
+      <c r="E80">
+        <v>0.03657079041034101</v>
+      </c>
+      <c r="F80">
+        <v>-0.02370258084173678</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.05347686345892431</v>
+        <v>0.1214439212166666</v>
       </c>
       <c r="C81">
-        <v>-0.1352893169587603</v>
+        <v>-0.03174006541802465</v>
       </c>
       <c r="D81">
-        <v>0.01606367806571592</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01510429666525465</v>
+      </c>
+      <c r="E81">
+        <v>0.05726726231077282</v>
+      </c>
+      <c r="F81">
+        <v>0.01657351642127548</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.05023044311471429</v>
+        <v>0.1658298953719738</v>
       </c>
       <c r="C82">
-        <v>-0.1633654023395424</v>
+        <v>-0.02407954488484719</v>
       </c>
       <c r="D82">
-        <v>0.01192093756515712</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.004118365944237512</v>
+      </c>
+      <c r="E82">
+        <v>0.02865228214741011</v>
+      </c>
+      <c r="F82">
+        <v>0.08030618384637711</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.02084588163209304</v>
+        <v>0.05980006743765023</v>
       </c>
       <c r="C83">
-        <v>-0.06555452734043334</v>
+        <v>-0.002852175884865252</v>
       </c>
       <c r="D83">
-        <v>-0.0159274228887465</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05136991135069265</v>
+      </c>
+      <c r="E83">
+        <v>0.005330901279160838</v>
+      </c>
+      <c r="F83">
+        <v>-0.03180983232701218</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.02871233404434469</v>
+        <v>0.05875527637695754</v>
       </c>
       <c r="C84">
-        <v>-0.07129906097465015</v>
+        <v>-0.01102152409376498</v>
       </c>
       <c r="D84">
-        <v>-0.03517413663728743</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.06387963358936302</v>
+      </c>
+      <c r="E84">
+        <v>0.006492271019929965</v>
+      </c>
+      <c r="F84">
+        <v>0.003993546506246021</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.04922962281290286</v>
+        <v>0.1366049047790696</v>
       </c>
       <c r="C85">
-        <v>-0.1206548026686489</v>
+        <v>-0.02759493832871841</v>
       </c>
       <c r="D85">
-        <v>0.01291379420539409</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01029192297115995</v>
+      </c>
+      <c r="E85">
+        <v>0.03836134562048692</v>
+      </c>
+      <c r="F85">
+        <v>0.04561121602781033</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.01535550905076157</v>
+        <v>0.09443985360083415</v>
       </c>
       <c r="C86">
-        <v>-0.08339700276816969</v>
+        <v>0.006204543336085915</v>
       </c>
       <c r="D86">
-        <v>0.1479258875956978</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04076690196177728</v>
+      </c>
+      <c r="E86">
+        <v>0.2115004048084298</v>
+      </c>
+      <c r="F86">
+        <v>-0.9081957504098858</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.04834279224353715</v>
+        <v>0.09713469148121628</v>
       </c>
       <c r="C87">
-        <v>-0.1128866486978821</v>
+        <v>-0.01962118955150034</v>
       </c>
       <c r="D87">
-        <v>-0.0593876295128709</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09573470551323729</v>
+      </c>
+      <c r="E87">
+        <v>-0.05113520829037268</v>
+      </c>
+      <c r="F87">
+        <v>0.05424680603397992</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.0174460837228175</v>
+        <v>0.06080164635458923</v>
       </c>
       <c r="C88">
-        <v>-0.05951331514847119</v>
+        <v>-0.002224507108864277</v>
       </c>
       <c r="D88">
-        <v>-0.006033755604397536</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04940421929072056</v>
+      </c>
+      <c r="E88">
+        <v>0.02459272015452525</v>
+      </c>
+      <c r="F88">
+        <v>0.01205560867429551</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.01217449488046784</v>
+        <v>0.1336083497991243</v>
       </c>
       <c r="C89">
-        <v>-0.06328928878868169</v>
+        <v>-0.01279121024235191</v>
       </c>
       <c r="D89">
-        <v>0.223398743088036</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2503220341118794</v>
+      </c>
+      <c r="E89">
+        <v>-0.09133922487875505</v>
+      </c>
+      <c r="F89">
+        <v>-0.008030515753371586</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.02881520764728404</v>
+        <v>0.1508929355196023</v>
       </c>
       <c r="C90">
-        <v>-0.0544176233160418</v>
+        <v>-0.0317500705224027</v>
       </c>
       <c r="D90">
-        <v>0.198043286332199</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2697320543900238</v>
+      </c>
+      <c r="E90">
+        <v>-0.1126978423304898</v>
+      </c>
+      <c r="F90">
+        <v>-0.001436155572780842</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.03320287426835785</v>
+        <v>0.120655446458452</v>
       </c>
       <c r="C91">
-        <v>-0.1032669259837166</v>
+        <v>-0.01886566228792185</v>
       </c>
       <c r="D91">
-        <v>0.0311794898258941</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01332114174713829</v>
+      </c>
+      <c r="E91">
+        <v>0.05629624482436783</v>
+      </c>
+      <c r="F91">
+        <v>-0.002476091037952026</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.01599122015926118</v>
+        <v>0.147766758345085</v>
       </c>
       <c r="C92">
-        <v>-0.06475518867561159</v>
+        <v>-0.02335149192287045</v>
       </c>
       <c r="D92">
-        <v>0.2235007396577306</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2921776390996759</v>
+      </c>
+      <c r="E92">
+        <v>-0.1015388875399119</v>
+      </c>
+      <c r="F92">
+        <v>-0.01279200693277379</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.02458941024107095</v>
+        <v>0.1522576238963699</v>
       </c>
       <c r="C93">
-        <v>-0.06015093983350231</v>
+        <v>-0.02759934664347814</v>
       </c>
       <c r="D93">
-        <v>0.2188104485646641</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2691950949103423</v>
+      </c>
+      <c r="E93">
+        <v>-0.07791076346843974</v>
+      </c>
+      <c r="F93">
+        <v>0.003261575699804371</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.04884030807893178</v>
+        <v>0.1304093043912788</v>
       </c>
       <c r="C94">
-        <v>-0.1407760083529805</v>
+        <v>-0.02460479394690691</v>
       </c>
       <c r="D94">
-        <v>0.003763949816895759</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04297511345623133</v>
+      </c>
+      <c r="E94">
+        <v>0.05808645481849843</v>
+      </c>
+      <c r="F94">
+        <v>0.03596046731300604</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.03411011494045206</v>
+        <v>0.1271206751159816</v>
       </c>
       <c r="C95">
-        <v>-0.1356892607310333</v>
+        <v>-0.003773578410512071</v>
       </c>
       <c r="D95">
-        <v>-0.03377663385022794</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09131039320520561</v>
+      </c>
+      <c r="E95">
+        <v>0.0461690965361622</v>
+      </c>
+      <c r="F95">
+        <v>-0.007990201931354766</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.9568293361588754</v>
+        <v>0.105630509559525</v>
       </c>
       <c r="C96">
-        <v>-0.2746118882105439</v>
+        <v>0.9876529618169733</v>
       </c>
       <c r="D96">
-        <v>0.03091405106817085</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.04693849770017625</v>
+      </c>
+      <c r="E96">
+        <v>0.05552561690140498</v>
+      </c>
+      <c r="F96">
+        <v>0.04214629458269247</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.02144637183291656</v>
+        <v>0.1923843153878299</v>
       </c>
       <c r="C97">
-        <v>-0.1654154212559401</v>
+        <v>0.007409065942485024</v>
       </c>
       <c r="D97">
-        <v>0.1035657767555919</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.0176911462845514</v>
+      </c>
+      <c r="E97">
+        <v>0.01826673601832492</v>
+      </c>
+      <c r="F97">
+        <v>-0.0926660766329901</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.03840268859297836</v>
+        <v>0.2045981431727975</v>
       </c>
       <c r="C98">
-        <v>-0.1945657388763864</v>
+        <v>-0.006974306991576321</v>
       </c>
       <c r="D98">
-        <v>-0.0007066641855067128</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01396829205206815</v>
+      </c>
+      <c r="E98">
+        <v>-0.08367473596102547</v>
+      </c>
+      <c r="F98">
+        <v>-0.09390047741151834</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.007733295102907586</v>
+        <v>0.05580913476928331</v>
       </c>
       <c r="C99">
-        <v>-0.06147458504312806</v>
+        <v>0.004782678533688307</v>
       </c>
       <c r="D99">
-        <v>0.003466914222610164</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.0393304859159084</v>
+      </c>
+      <c r="E99">
+        <v>0.02289249123171018</v>
+      </c>
+      <c r="F99">
+        <v>0.001342841563066046</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.003168023149004767</v>
+        <v>0.1255108943601786</v>
       </c>
       <c r="C100">
-        <v>-0.1494743388165047</v>
+        <v>0.05432517473702541</v>
       </c>
       <c r="D100">
-        <v>-0.7348040654495708</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3443258004561077</v>
+      </c>
+      <c r="E100">
+        <v>-0.8893507471690126</v>
+      </c>
+      <c r="F100">
+        <v>-0.1400743400781848</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.01520319608441114</v>
+        <v>0.02761292845025404</v>
       </c>
       <c r="C101">
-        <v>-0.0276805027629729</v>
+        <v>-0.00823764990532121</v>
       </c>
       <c r="D101">
-        <v>0.002702584524603615</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03145500989165327</v>
+      </c>
+      <c r="E101">
+        <v>0.01050909961047911</v>
+      </c>
+      <c r="F101">
+        <v>-0.01302019234980733</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
